--- a/xlsx/安大略湖_intext.xlsx
+++ b/xlsx/安大略湖_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
   <si>
     <t>安大略湖</t>
   </si>
@@ -29,19 +29,19 @@
     <t>CN塔</t>
   </si>
   <si>
-    <t>政策_政策_美國_安大略湖</t>
+    <t>政策_政策_美国_安大略湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E6%B2%B3</t>
   </si>
   <si>
-    <t>尼亞加拉河</t>
+    <t>尼亚加拉河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
-    <t>聖羅倫斯河</t>
+    <t>圣罗伦斯河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%80%AB%E5%A4%9A</t>
   </si>
   <si>
-    <t>多倫多</t>
+    <t>多伦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%AF%86%E5%B0%94%E9%A1%BF_(%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81)</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B9%E6%96%AF%E7%89%B9_(%E7%B4%90%E7%B4%84%E5%B7%9E)</t>
   </si>
   <si>
-    <t>羅徹斯特 (紐約州)</t>
+    <t>罗彻斯特 (纽约州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9A%E5%8A%A0%E6%8B%89%E6%B2%B3</t>
   </si>
   <si>
-    <t>尼亚加拉河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8A%B3%E4%BC%A6%E6%96%AF%E6%B2%B3</t>
   </si>
   <si>
@@ -143,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%80%AB%E6%B9%96</t>
   </si>
   <si>
-    <t>休倫湖</t>
+    <t>休伦湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E6%B9%96</t>
@@ -167,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E8%90%8A%E7%88%BE%E6%B9%96_(%E5%8C%97%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>聖克萊爾湖 (北美洲)</t>
+    <t>圣克莱尔湖 (北美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%A7%86%E7%A7%91%E6%B9%96</t>
   </si>
   <si>
-    <t>錫姆科湖</t>
+    <t>锡姆科湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%B4%8D%E8%B2%9D%E6%88%88%E6%B9%96</t>
   </si>
   <si>
-    <t>溫納貝戈湖</t>
+    <t>温纳贝戈湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%B2%B3</t>
@@ -191,13 +185,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>伊利運河</t>
+    <t>伊利运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>喬治亞灣</t>
+    <t>乔治亚湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_George_(Michigan%E2%80%93Ontario)</t>
@@ -227,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9F%BA%E8%AF%BA%E6%B0%B4%E9%81%93</t>
@@ -239,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%98%AD%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>威蘭運河</t>
+    <t>威兰运河</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_Chicago</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>大湖效應</t>
+    <t>大湖效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%8C%BA%E5%9F%8E%E5%B8%82%E7%BE%A4</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -984,7 +978,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -1010,10 +1004,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1039,10 +1033,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1068,10 +1062,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1097,10 +1091,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1126,10 +1120,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1155,10 +1149,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1184,10 +1178,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1213,10 +1207,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1242,10 +1236,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1271,10 +1265,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1300,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1329,10 +1323,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1358,10 +1352,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1387,10 +1381,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1416,10 +1410,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1445,10 +1439,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1474,10 +1468,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1503,10 +1497,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1532,10 +1526,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1561,10 +1555,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1590,10 +1584,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1619,10 +1613,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1648,10 +1642,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1677,10 +1671,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1706,10 +1700,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1735,10 +1729,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -1764,10 +1758,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1793,10 +1787,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1822,10 +1816,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1851,10 +1845,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1880,10 +1874,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1909,10 +1903,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1938,10 +1932,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1967,10 +1961,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1996,10 +1990,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2025,10 +2019,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2054,10 +2048,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2083,10 +2077,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2112,10 +2106,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2141,10 +2135,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
